--- a/medicine/Mort/Cimetière_militaire_belge_de_Steenkerke/Cimetière_militaire_belge_de_Steenkerke.xlsx
+++ b/medicine/Mort/Cimetière_militaire_belge_de_Steenkerke/Cimetière_militaire_belge_de_Steenkerke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_belge_de_Steenkerke</t>
+          <t>Cimetière_militaire_belge_de_Steenkerke</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière militaire belge de Steenkerke est un cimetière militaire de la Première Guerre mondiale situé Steenkerkestraat derrière l'église du village de Steenkerke.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_belge_de_Steenkerke</t>
+          <t>Cimetière_militaire_belge_de_Steenkerke</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cimetière a une superficie de 54 ares. Y reposent 534 soldats belges. On y trouve encore 9 tombes avec une "croix de héros" flamandes (Heldenhuldezerkje) qui furent dessinées par le peintre flamand Joe English qui par ailleurs repose également dans ce cimetière. Le tout premier pèlerinage de l'Yser y eut lieu en 1920.
-On y trouve également les tombes de 30 soldats britanniques[1].
+On y trouve également les tombes de 30 soldats britanniques.
 </t>
         </is>
       </c>
